--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AEAS\Software engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF7AD55-60B8-45B4-BAA3-DD5F16C42979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C670367-60CD-4A02-A111-00A48AD64077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{55060645-4605-4E2A-AB1C-B5C1F09C4390}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>CW_20</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Docker setup</t>
+  </si>
+  <si>
+    <t>CW_27</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -320,21 +323,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -577,6 +565,30 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -585,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -597,47 +609,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,85 +658,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1041,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB51232-EA31-4DA8-A122-7193BA4AE62E}">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,77 +1092,83 @@
     <col min="34" max="39" width="3.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:43" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40" t="s">
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
     </row>
-    <row r="2" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="24">
         <v>13</v>
       </c>
@@ -1241,8 +1271,11 @@
       <c r="AM2" s="25">
         <v>27</v>
       </c>
+      <c r="AN2" s="25">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>26</v>
       </c>
@@ -1291,8 +1324,9 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="7"/>
+      <c r="AN3" s="53"/>
     </row>
-    <row r="4" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1306,10 +1340,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1341,8 +1375,9 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="8"/>
+      <c r="AN4" s="53"/>
     </row>
-    <row r="5" spans="1:39" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:43" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
@@ -1358,10 +1393,10 @@
       <c r="F5" s="10"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="50"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1391,8 +1426,9 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="8"/>
+      <c r="AN5" s="53"/>
     </row>
-    <row r="6" spans="1:39" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:43" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6"/>
       <c r="D6" s="27">
         <v>4</v>
@@ -1403,10 +1439,10 @@
       <c r="F6" s="10"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1436,8 +1472,9 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="8"/>
+      <c r="AN6" s="53"/>
     </row>
-    <row r="7" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29"/>
       <c r="B7" s="29" t="s">
         <v>41</v>
@@ -1453,10 +1490,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1484,8 +1521,9 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="8"/>
+      <c r="AN7" s="53"/>
     </row>
-    <row r="8" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="14" t="s">
         <v>35</v>
@@ -1501,10 +1539,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1532,8 +1570,9 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="8"/>
+      <c r="AN8" s="53"/>
     </row>
-    <row r="9" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:43" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="14" t="s">
         <v>36</v>
@@ -1551,10 +1590,10 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="41"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1580,8 +1619,9 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="8"/>
+      <c r="AN9" s="53"/>
     </row>
-    <row r="10" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D10" s="27">
         <v>8</v>
       </c>
@@ -1597,11 +1637,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1624,8 +1664,9 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="8"/>
+      <c r="AN10" s="53"/>
     </row>
-    <row r="11" spans="1:39" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="27">
         <v>9</v>
       </c>
@@ -1668,8 +1709,9 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="8"/>
+      <c r="AN11" s="53"/>
     </row>
-    <row r="12" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D12" s="27">
         <v>10</v>
       </c>
@@ -1712,8 +1754,9 @@
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="8"/>
+      <c r="AN12" s="53"/>
     </row>
-    <row r="13" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D13" s="27">
         <v>11</v>
       </c>
@@ -1734,14 +1777,14 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="49" t="s">
+      <c r="T13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="51"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="41"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -1756,8 +1799,9 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="8"/>
+      <c r="AN13" s="53"/>
     </row>
-    <row r="14" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D14" s="27">
         <v>12</v>
       </c>
@@ -1779,13 +1823,13 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="49" t="s">
+      <c r="U14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="51"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="41"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -1800,8 +1844,9 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="8"/>
+      <c r="AN14" s="53"/>
     </row>
-    <row r="15" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D15" s="27">
         <v>13</v>
       </c>
@@ -1825,14 +1870,14 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="49" t="s">
+      <c r="W15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="51"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="41"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -1844,8 +1889,9 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="8"/>
+      <c r="AN15" s="53"/>
     </row>
-    <row r="16" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D16" s="27">
         <v>14</v>
       </c>
@@ -1871,12 +1917,12 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="49" t="s">
+      <c r="Y16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="51"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="41"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -1888,8 +1934,9 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="8"/>
+      <c r="AN16" s="53"/>
     </row>
-    <row r="17" spans="4:39" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" s="27">
         <v>15</v>
       </c>
@@ -1932,8 +1979,9 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="8"/>
+      <c r="AN17" s="53"/>
     </row>
-    <row r="18" spans="4:39" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:40" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" s="27">
         <v>16</v>
       </c>
@@ -1976,8 +2024,9 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="8"/>
+      <c r="AN18" s="53"/>
     </row>
-    <row r="19" spans="4:39" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -2020,8 +2069,9 @@
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="8"/>
+      <c r="AN19" s="53"/>
     </row>
-    <row r="20" spans="4:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D20" s="27">
         <v>18</v>
       </c>
@@ -2054,18 +2104,19 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="39" t="s">
+      <c r="AF20" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="8"/>
+      <c r="AN20" s="53"/>
     </row>
-    <row r="21" spans="4:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D21" s="27">
         <v>19</v>
       </c>
@@ -2101,15 +2152,16 @@
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
-      <c r="AI21" s="39" t="s">
+      <c r="AI21" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="52"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="53"/>
     </row>
-    <row r="22" spans="4:39" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:40" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D22" s="33">
         <v>20</v>
       </c>
@@ -2145,26 +2197,18 @@
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9"/>
-      <c r="AI22" s="47" t="s">
+      <c r="AI22" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="48"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="AI22:AM22"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="W15:AB15"/>
-    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AI22:AN22"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="AC18:AF18"/>
@@ -2181,6 +2225,15 @@
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="W15:AB15"/>
+    <mergeCell ref="Y16:AB16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
